--- a/Documentation/Model Design Document/TestPlan.xlsx
+++ b/Documentation/Model Design Document/TestPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/DSSresearchteam/Gedeelde documenten/General/Sustainability/Externally funded research/NWA-ORC batteryNL/Student projects/Hardware simulator/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7578a6564403f0f7/Documents/GitHub/Hardware_Simulator/Documentation/Model Design Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F00160F-5029-4F96-B827-AF3E50B17814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{6F00160F-5029-4F96-B827-AF3E50B17814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC4C03A-A777-4FB7-B462-6BE0E3C799DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{C9B69B84-2E13-4788-BBCE-DFBAA26DE020}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9B69B84-2E13-4788-BBCE-DFBAA26DE020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -53,170 +53,176 @@
     <t>Measured outcome</t>
   </si>
   <si>
+    <t>The maximum voltage of the 14 cell battery pack emulator is 80V</t>
+  </si>
+  <si>
+    <t>Attach Siglent SPD3303X-E power supply to input. Measure output voltage of the combined cells at maximum output voltage with a multimeter</t>
+  </si>
+  <si>
+    <t>80V +- 10%</t>
+  </si>
+  <si>
+    <t>The maximum voltage of the 4 cell battery pack emulator is 20V</t>
+  </si>
+  <si>
+    <t>20V +- 10%</t>
+  </si>
+  <si>
+    <t>The battery pack emulator has a peak power of 13.44kW (see 10.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach Siglent SPD3303X-E power supply to input. Attach load to output and set output voltage of cell to maximum. Measure peak output voltage and current values with oscilloscope over time to calculate power. </t>
+  </si>
+  <si>
+    <t>13.44kW +- 10%</t>
+  </si>
+  <si>
+    <t>The 4 cell battery pack emulator has a peak power of 240W (see 10.1)</t>
+  </si>
+  <si>
+    <t>240W +- 10%</t>
+  </si>
+  <si>
+    <t>The battery pack emulator has a continuous power of 112W (see 10.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach Siglent SPD3303X-E power supply to input. Attach load to output and set output voltage of cell to maximum. Measure output voltage and current with multimeter to calculate power. </t>
+  </si>
+  <si>
+    <t>112W +- 10%</t>
+  </si>
+  <si>
+    <t>The emulated cell has a voltage range of 2.48 to 5.04 V</t>
+  </si>
+  <si>
+    <t>Attach Siglent SPD3303X-E power supply to input. Measure output voltage of each cell with multimeter at the minimum and maximum output voltages</t>
+  </si>
+  <si>
+    <t>2.48V to 5.04V +-10%</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak sourcing current of 12A</t>
+  </si>
+  <si>
+    <t>Attach Siglent SPD3303X-E power supply to input. Attach a load to the output and measure the current through the load</t>
+  </si>
+  <si>
+    <t>12A +- 10%</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous sourcing current of 100mA</t>
+  </si>
+  <si>
+    <t>100mA +- 10%</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak sinking current of 12A</t>
+  </si>
+  <si>
+    <t>Take two Siglent SPD3303X-E power supplies in parallel and set the current to 6A and measure the current drawn from these supplies</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous sinking current of 100mA</t>
+  </si>
+  <si>
+    <t>Take one Siglent SPD3303X-E power supply and set the current to 200mA and measure the current drawn from the supply</t>
+  </si>
+  <si>
+    <t>The emulated cell has a peak power of 60W</t>
+  </si>
+  <si>
+    <t>60W +- 10%</t>
+  </si>
+  <si>
+    <t>The emulated cell has a continuous power of 0.5W</t>
+  </si>
+  <si>
+    <t>0.5W +- 10%</t>
+  </si>
+  <si>
+    <t>A user interface is made to adjust the voltages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Test for specific voltages, voltages on the boundaries, and if the voltages change in real time. Measure the output with a multimeter </t>
+  </si>
+  <si>
+    <t>Output voltage responds to changes in the user interface</t>
+  </si>
+  <si>
+    <t>The voltages are adjusted using a digital potentiometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Vary the resistance of the potentiometer to achieve specific voltages and measure the output voltage of the PCB using a multimeter.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output voltage responds to changes in the digital potentiometer </t>
+  </si>
+  <si>
+    <t>The temperature is emulated by using a digital potentiometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the device and decide on reference temperatures. Set the digital potentiometer to the desired emulated temperature and measure. </t>
+  </si>
+  <si>
+    <t>The emulated temperature matches the temperature from the potentiometer</t>
+  </si>
+  <si>
+    <t>The emulated temperature range is -40 to 80 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set-up the device. Set the digital potentiometer to emulate the desired temperature boundaries and measure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emulated temperature range matches the desired range for the device </t>
+  </si>
+  <si>
+    <t>The emulated battery pack has an output which indicates the temperature relative to the output voltage</t>
+  </si>
+  <si>
+    <t>The temperature of the electronics should be less than 25 C</t>
+  </si>
+  <si>
+    <t>*Run the device for an hour and then take the temperature of the electronics</t>
+  </si>
+  <si>
+    <t>Temperature is under 25 C</t>
+  </si>
+  <si>
+    <t>The input of the battery pack emulator has reverse polarity protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire the input with inverse polarity </t>
+  </si>
+  <si>
+    <t>nothing blows up</t>
+  </si>
+  <si>
+    <t>The input of the battery pack emulator and load emulator have over current protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase the input current above the maximum value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing blows up </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2.5152V to 5.5104V</t>
+  </si>
+  <si>
     <t>Check</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>The maximum voltage of the 14 cell battery pack emulator is 80V</t>
-  </si>
-  <si>
-    <t>Attach Siglent SPD3303X-E power supply to input. Measure output voltage of the combined cells at maximum output voltage with a multimeter</t>
-  </si>
-  <si>
-    <t>80V +- 10%</t>
-  </si>
-  <si>
-    <t>The maximum voltage of the 4 cell battery pack emulator is 20V</t>
-  </si>
-  <si>
-    <t>20V +- 10%</t>
-  </si>
-  <si>
-    <t>The battery pack emulator has a peak power of 13.44kW (see 10.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attach Siglent SPD3303X-E power supply to input. Attach load to output and set output voltage of cell to maximum. Measure peak output voltage and current values with oscilloscope over time to calculate power. </t>
-  </si>
-  <si>
-    <t>13.44kW +- 10%</t>
-  </si>
-  <si>
-    <t>The 4 cell battery pack emulator has a peak power of 240W (see 10.1)</t>
-  </si>
-  <si>
-    <t>240W +- 10%</t>
-  </si>
-  <si>
-    <t>The battery pack emulator has a continuous power of 112W (see 10.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attach Siglent SPD3303X-E power supply to input. Attach load to output and set output voltage of cell to maximum. Measure output voltage and current with multimeter to calculate power. </t>
-  </si>
-  <si>
-    <t>112W +- 10%</t>
-  </si>
-  <si>
-    <t>The emulated cell has a voltage range of 2.48 to 5.04 V</t>
-  </si>
-  <si>
-    <t>Attach Siglent SPD3303X-E power supply to input. Measure output voltage of each cell with multimeter at the minimum and maximum output voltages</t>
-  </si>
-  <si>
-    <t>2.48V to 5.04V +-10%</t>
-  </si>
-  <si>
-    <t>The emulated cell has a peak sourcing current of 12A</t>
-  </si>
-  <si>
-    <t>Attach Siglent SPD3303X-E power supply to input. Attach a load to the output and measure the current through the load</t>
-  </si>
-  <si>
-    <t>12A +- 10%</t>
-  </si>
-  <si>
-    <t>The emulated cell has a continuous sourcing current of 100mA</t>
-  </si>
-  <si>
-    <t>100mA +- 10%</t>
-  </si>
-  <si>
-    <t>The emulated cell has a peak sinking current of 12A</t>
-  </si>
-  <si>
-    <t>Take two Siglent SPD3303X-E power supplies in parallel and set the current to 6A and measure the current drawn from these supplies</t>
-  </si>
-  <si>
-    <t>The emulated cell has a continuous sinking current of 100mA</t>
-  </si>
-  <si>
-    <t>Take one Siglent SPD3303X-E power supply and set the current to 200mA and measure the current drawn from the supply</t>
-  </si>
-  <si>
-    <t>The emulated cell has a peak power of 60W</t>
-  </si>
-  <si>
-    <t>60W +- 10%</t>
-  </si>
-  <si>
-    <t>The emulated cell has a continuous power of 0.5W</t>
-  </si>
-  <si>
-    <t>0.5W +- 10%</t>
-  </si>
-  <si>
-    <t>A user interface is made to adjust the voltages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Test for specific voltages, voltages on the boundaries, and if the voltages change in real time. Measure the output with a multimeter </t>
-  </si>
-  <si>
-    <t>Output voltage responds to changes in the user interface</t>
-  </si>
-  <si>
-    <t>The voltages are adjusted using a digital potentiometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set-up the user device and attach it to the PCB. Vary the resistance of the potentiometer to achieve specific voltages and measure the output voltage of the PCB using a multimeter.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output voltage responds to changes in the digital potentiometer </t>
-  </si>
-  <si>
-    <t>The temperature is emulated by using a digital potentiometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set-up the device and decide on reference temperatures. Set the digital potentiometer to the desired emulated temperature and measure. </t>
-  </si>
-  <si>
-    <t>The emulated temperature matches the temperature from the potentiometer</t>
-  </si>
-  <si>
-    <t>The emulated temperature range is -40 to 80 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set-up the device. Set the digital potentiometer to emulate the desired temperature boundaries and measure. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The emulated temperature range matches the desired range for the device </t>
-  </si>
-  <si>
-    <t>The emulated battery pack has an output which indicates the temperature relative to the output voltage</t>
-  </si>
-  <si>
-    <t>The temperature of the electronics should be less than 25 C</t>
-  </si>
-  <si>
-    <t>*Run the device for an hour and then take the temperature of the electronics</t>
-  </si>
-  <si>
-    <t>Temperature is under 25 C</t>
-  </si>
-  <si>
-    <t>The input of the battery pack emulator has reverse polarity protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire the input with inverse polarity </t>
-  </si>
-  <si>
-    <t>nothing blows up</t>
-  </si>
-  <si>
-    <t>The input of the battery pack emulator and load emulator have over current protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase the input current above the maximum value </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nothing blows up </t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,30 +373,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -473,29 +464,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -509,7 +477,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -537,20 +528,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:G21" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:G21" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}" name="Table1" displayName="Table1" ref="A1:F21" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="7" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:F21" xr:uid="{D3768830-E44B-4153-A1BF-9DDD9E12B437}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
     <sortCondition ref="A1:A21"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="6">
     <tableColumn id="11" xr3:uid="{A3FD80B9-3704-4DDD-93E1-356A7323D270}" name="ID" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{4BA4F32F-7338-4412-AC80-E83E87A680C9}" name="Requirement" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{01FB06B0-885A-47A2-917B-E9D39BD9B871}" name="Test method" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{D751F657-CB72-43EB-8FDE-9C24EF420DD9}" name="Expected outcome" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{C7D933BD-B8D2-44CC-A21F-7FD843E97A10}" name="Measured outcome" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9805307B-3075-4F65-BAB8-FB14BA919C8B}" name="Check" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AFA2DF87-A8CA-4D62-AC03-F4279D6F157F}" name="Date" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{9ADB48BB-9295-48CB-930E-4BD3231AB531}" name="Check" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,28 +847,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555679DB-D521-465B-BFBC-20DCFFD39367}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,347 +885,346 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="75">
+      <c r="E2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1.1100000000000001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="120">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1.2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="120">
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1.21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="105">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1.3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="75">
+      <c r="E6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="60">
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5.2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="60">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5.3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="75">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5.4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="75">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>5.5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="120">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5.6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="105">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>5.7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="105">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>6.2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="90">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>6.3</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="75">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>7.1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="75">
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>7.2</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="60">
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>7.3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="45">
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10.1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="45">
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>10.199999999999999</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="45">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>10.3</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,13 +1510,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A91DD7C9-24B1-478E-9E02-4202AD2D0C30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A91DD7C9-24B1-478E-9E02-4202AD2D0C30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="26d92a4d-177a-45b1-951e-d0186c0e9449"/>
+    <ds:schemaRef ds:uri="71890d39-1d34-4ad5-b7d8-2e5d47ce3987"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F4BA122-0173-4AFD-B5BE-4DE16C9CECEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F4BA122-0173-4AFD-B5BE-4DE16C9CECEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3921D5-A251-41A1-BB0C-83995EBEA472}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F3921D5-A251-41A1-BB0C-83995EBEA472}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="26d92a4d-177a-45b1-951e-d0186c0e9449"/>
+    <ds:schemaRef ds:uri="71890d39-1d34-4ad5-b7d8-2e5d47ce3987"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>